--- a/June_Event/Porewaters/pw_raw_npoc_tn_data/20220711_Readme_NPOC_TN_COMPASS_TEMPEST_JUNE22_n5.xlsx
+++ b/June_Event/Porewaters/pw_raw_npoc_tn_data/20220711_Readme_NPOC_TN_COMPASS_TEMPEST_JUNE22_n5.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25524"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myer056/OneDrive - PNNL/Documents/GitHub/TEMPEST/June_Event/Porewaters/pw_raw_npoc_tn_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl.sharepoint.com/teams/MCRL-COMPASS/Shared Documents/COMPASS Data Files MCRL/Raw_Instrument_Data/TEMPEST/TOC_LC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE7E475-715D-3F49-A27B-BB6E3E358B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{DB9F873E-6BAA-4A49-B8F9-F322DA1ACF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{465F7DE3-B02E-44A3-A58B-31A8AE990A8F}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="660" windowWidth="28040" windowHeight="16080" xr2:uid="{321A9A60-236A-1647-AC5B-43552E630B58}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16080" firstSheet="1" xr2:uid="{321A9A60-236A-1647-AC5B-43552E630B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dilution sheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Sample Name</t>
   </si>
@@ -47,6 +48,12 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Sample wt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total vol: </t>
   </si>
   <si>
     <t>CondBlank1</t>
@@ -141,17 +148,35 @@
     <t>NPOC: 1.119 mg/L, TN: 0.9789 mg/L</t>
   </si>
   <si>
-    <t>Sample wt</t>
-  </si>
-  <si>
-    <t>Total vol:</t>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Vial wt (g)</t>
+  </si>
+  <si>
+    <t>Vial wt+Sample (g)</t>
+  </si>
+  <si>
+    <t>Sample Wt (g)</t>
+  </si>
+  <si>
+    <t>DI added (mL)</t>
+  </si>
+  <si>
+    <t>Total vol (mL)</t>
+  </si>
+  <si>
+    <t>Vial wt after addition (g)</t>
+  </si>
+  <si>
+    <t>*two different glass thickness-&gt; explains differing vial wts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,13 +192,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,8 +232,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,16 +555,16 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,144 +577,187 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559BE730-F974-462B-8BA0-3B7875B75C62}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -681,6 +772,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007324DF9BA5F6B948938C142504C8F34F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4aadcd1f2a12dc9b07f6546b5e76248">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da8c28ad-5ac5-4047-b08a-f75bc24d91a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6457694f174ba676422feeebbff24cf4" ns2:_="">
     <xsd:import namespace="da8c28ad-5ac5-4047-b08a-f75bc24d91a9"/>
@@ -850,46 +950,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF424FB6-9AAB-4183-BF47-A483334127D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF424FB6-9AAB-4183-BF47-A483334127D8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AC9BAE0-3435-4581-97BA-C8A9D37F63A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="da8c28ad-5ac5-4047-b08a-f75bc24d91a9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E7873C-D29B-4D65-B591-256CC0824A58}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E7873C-D29B-4D65-B591-256CC0824A58}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AC9BAE0-3435-4581-97BA-C8A9D37F63A9}"/>
 </file>